--- a/Tableau_Electricite.xlsx
+++ b/Tableau_Electricite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etienne\OpenClassrooms\Gérez code avec Git &amp; GitHub (cours)\Activites\activite1\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etienne\OpenClassrooms\github\activite1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -639,7 +639,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,18 +749,20 @@
       <c r="B4" s="3">
         <v>85.21</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>107.55</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6">
         <f t="shared" si="0"/>
-        <v>85.21</v>
+        <v>192.76</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="1"/>
-        <v>7.1008333333333331</v>
+        <v>16.063333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Tableau_Electricite.xlsx
+++ b/Tableau_Electricite.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Electricité" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Electricité!$A$1:$I$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Electricité!$A$1:$I$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -119,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -256,11 +256,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +344,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,11 +766,11 @@
         <v>103.01</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H6" si="0">SUM(B2:G2)</f>
+        <f t="shared" ref="H2:H11" si="0">SUM(B2:G2)</f>
         <v>569.07000000000005</v>
       </c>
       <c r="I2" s="7">
-        <f t="shared" ref="I2:I6" si="1">H2/12</f>
+        <f t="shared" ref="I2:I11" si="1">H2/12</f>
         <v>47.422500000000007</v>
       </c>
     </row>
@@ -788,17 +851,112 @@
       <c r="A6" s="4">
         <v>2019</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16">
+        <f t="shared" ref="H6:H10" si="4">SUM(B6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" ref="I6:I10" si="5">H6/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
